--- a/tmp/ar_jadwal.xlsx
+++ b/tmp/ar_jadwal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>TIF-101</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Hari</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
   </si>
   <si>
     <t>Waktu Mulai</t>
@@ -125,9 +122,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -655,13 +651,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,64 +992,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>30</v>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>31</v>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1074,10 +1068,10 @@
         <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1088,185 +1082,167 @@
       <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>42156</v>
+      <c r="C10" s="4">
+        <v>0.3125</v>
       </c>
       <c r="D10" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E10" s="4">
         <v>0.375</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>30</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>42156</v>
+      <c r="C11" s="4">
+        <v>0.38541666666666669</v>
       </c>
       <c r="D11" s="4">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E11" s="4">
         <v>0.45833333333333331</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>35</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
-        <v>42156</v>
+      <c r="C12" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D12" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E12" s="4">
         <v>0.52083333333333337</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>40</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
-        <v>42156</v>
+      <c r="C13" s="4">
+        <v>0.625</v>
       </c>
       <c r="D13" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="E13" s="4">
         <v>0.6875</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>50</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <v>42156</v>
+      <c r="C14" s="4">
+        <v>0.3125</v>
       </c>
       <c r="D14" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E14" s="4">
         <v>0.3888888888888889</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <v>30</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
